--- a/xCodedUIFramework-mastersep23/xCodedUI.AppFramework/Data/TC310.xlsx
+++ b/xCodedUIFramework-mastersep23/xCodedUI.AppFramework/Data/TC310.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,14 @@
     <t>name</t>
   </si>
   <si>
-    <t>hfdertgh</t>
+    <t>mytest310</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,7 +134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,9 +166,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,6 +201,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -375,21 +377,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -401,24 +403,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
